--- a/Teelab.xlsx
+++ b/Teelab.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Timkiem" sheetId="1" r:id="rId1"/>
+    <sheet name="Dangnhap" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>tukhoa</t>
   </si>
@@ -42,35 +43,73 @@
     <t>!$#</t>
   </si>
   <si>
-    <t>Không tìm thấy bất kỳ kết quả nào với từ khóa trên.</t>
-  </si>
-  <si>
     <t xml:space="preserve">       balo</t>
   </si>
   <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Áo khoác</t>
+  </si>
+  <si>
+    <t>Có 21 kết quả tìm kiếm phù hợp</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>matkhau</t>
+  </si>
+  <si>
+    <t>Thom24924</t>
+  </si>
+  <si>
+    <t>phamhongthom249@.com</t>
+  </si>
+  <si>
+    <t>Please fill out this field.</t>
+  </si>
+  <si>
+    <t>Please include an '@' in the email address. 'phamhongthom249' is missing an '@'.</t>
+  </si>
+  <si>
+    <t>phamhongthom249</t>
+  </si>
+  <si>
+    <t>.' is used at a wrong position in '.com'.' không hoàn chỉnh</t>
+  </si>
+  <si>
+    <t>phamhongthom249@gmail.</t>
+  </si>
+  <si>
+    <t>.' is used at a wrong position in 'gmail.'.</t>
+  </si>
+  <si>
     <t>Có 2 kết quả tìm kiếm phù hợp</t>
   </si>
   <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>Có 22 kết quả tìm kiếm phù hợp</t>
-  </si>
-  <si>
-    <t>Có 12 kết quả tìm kiếm phù hợp</t>
-  </si>
-  <si>
-    <t>Áo khoác</t>
+    <t>Có 11 kết quả tìm kiếm phù hợp</t>
+  </si>
+  <si>
+    <t>Nhập từ khóa để tìm kiếm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,13 +132,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,7 +424,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,34 +462,108 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="31.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="phamhongthom249@.com"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Teelab.xlsx
+++ b/Teelab.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>tukhoa</t>
   </si>
@@ -76,15 +76,9 @@
     <t>phamhongthom249</t>
   </si>
   <si>
-    <t>.' is used at a wrong position in '.com'.' không hoàn chỉnh</t>
-  </si>
-  <si>
     <t>phamhongthom249@gmail.</t>
   </si>
   <si>
-    <t>.' is used at a wrong position in 'gmail.'.</t>
-  </si>
-  <si>
     <t>Có 2 kết quả tìm kiếm phù hợp</t>
   </si>
   <si>
@@ -92,6 +86,39 @@
   </si>
   <si>
     <t>Nhập từ khóa để tìm kiếm</t>
+  </si>
+  <si>
+    <t>phamhongthom249gmail.com</t>
+  </si>
+  <si>
+    <t>Please include an '@' in the email address. 'phamhongthom249gmail.com' is missing an '@'.</t>
+  </si>
+  <si>
+    <t>phamhongthom249@</t>
+  </si>
+  <si>
+    <t>Please enter a part following '@'. 'phamhongthom249@' is incomplete.</t>
+  </si>
+  <si>
+    <t>phamhongthomthom249@gmail.com</t>
+  </si>
+  <si>
+    <t>Thông tin đăng nhập không hợp lệ</t>
+  </si>
+  <si>
+    <t>Thom24</t>
+  </si>
+  <si>
+    <t>Xin chào, Thơm Phạm !</t>
+  </si>
+  <si>
+    <t>phamhongthom@gmail.com</t>
+  </si>
+  <si>
+    <t>'.' is used at a wrong position in 'gmail.'.</t>
+  </si>
+  <si>
+    <t>"'.' is used at a wrong position in '.com'."</t>
   </si>
 </sst>
 </file>
@@ -136,10 +163,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -424,13 +457,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.6328125" customWidth="1"/>
-    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -441,11 +474,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -462,7 +495,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -470,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -486,7 +519,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -496,17 +529,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="1" max="1" width="35.1796875" customWidth="1"/>
     <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="31.6328125" customWidth="1"/>
+    <col min="3" max="3" width="48.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -528,14 +561,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -547,15 +580,81 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -563,6 +662,11 @@
     <hyperlink ref="A3" r:id="rId1" display="phamhongthom249@.com"/>
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A9" r:id="rId5"/>
+    <hyperlink ref="A10" r:id="rId6"/>
+    <hyperlink ref="A11" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teelab.xlsx
+++ b/Teelab.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Timkiem" sheetId="1" r:id="rId1"/>
     <sheet name="Dangnhap" sheetId="2" r:id="rId2"/>
+    <sheet name="Dangky" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>tukhoa</t>
   </si>
@@ -100,12 +101,6 @@
     <t>Please enter a part following '@'. 'phamhongthom249@' is incomplete.</t>
   </si>
   <si>
-    <t>phamhongthomthom249@gmail.com</t>
-  </si>
-  <si>
-    <t>Thông tin đăng nhập không hợp lệ</t>
-  </si>
-  <si>
     <t>Thom24</t>
   </si>
   <si>
@@ -118,7 +113,70 @@
     <t>'.' is used at a wrong position in 'gmail.'.</t>
   </si>
   <si>
-    <t>"'.' is used at a wrong position in '.com'."</t>
+    <t>phamhongthom249@gmail.com</t>
+  </si>
+  <si>
+    <t>Thông tin đăng nhập không chính xác.</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>sdt</t>
+  </si>
+  <si>
+    <t>Thom</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>pthom2345@gmail.com</t>
+  </si>
+  <si>
+    <t>thom12345</t>
+  </si>
+  <si>
+    <t>Please include an '@' in the email address. 'pthom2345' is missing an '@'.</t>
+  </si>
+  <si>
+    <t>pthom2345@</t>
+  </si>
+  <si>
+    <t>pthom2345</t>
+  </si>
+  <si>
+    <t>0985829610</t>
+  </si>
+  <si>
+    <t>Please enter a part following '@'. 'pthom2345@' is incomplete.</t>
+  </si>
+  <si>
+    <t>pthom2345gmail.com</t>
+  </si>
+  <si>
+    <t>Please include an '@' in the email address. 'pthom2345gmail.com' is missing an '@'.</t>
+  </si>
+  <si>
+    <t>Email đã tồn tại.</t>
+  </si>
+  <si>
+    <t>Mật khẩu dài từ 6 đến 50 ký tự</t>
+  </si>
+  <si>
+    <t>098582961</t>
+  </si>
+  <si>
+    <t>Please match the requested format.</t>
+  </si>
+  <si>
+    <t>thom1</t>
+  </si>
+  <si>
+    <t>'.' is used at a wrong position in '.com'.</t>
   </si>
 </sst>
 </file>
@@ -456,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -532,7 +590,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -591,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -618,18 +676,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -637,24 +695,24 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -670,4 +728,201 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="50.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="pthom2345@gmail.com"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="C3" r:id="rId7" display="pthom2345@"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
 </file>
--- a/Teelab.xlsx
+++ b/Teelab.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Timkiem" sheetId="1" r:id="rId1"/>
     <sheet name="Dangnhap" sheetId="2" r:id="rId2"/>
     <sheet name="Dangky" sheetId="3" r:id="rId3"/>
+    <sheet name="Dathang" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
   <si>
     <t>tukhoa</t>
   </si>
@@ -170,13 +171,70 @@
     <t>098582961</t>
   </si>
   <si>
-    <t>Please match the requested format.</t>
-  </si>
-  <si>
     <t>thom1</t>
   </si>
   <si>
     <t>'.' is used at a wrong position in '.com'.</t>
+  </si>
+  <si>
+    <t>Số điện thoại không hợp lệ.</t>
+  </si>
+  <si>
+    <t>hoten</t>
+  </si>
+  <si>
+    <t>diachi</t>
+  </si>
+  <si>
+    <t>tinhthanh</t>
+  </si>
+  <si>
+    <t>quanhuyen</t>
+  </si>
+  <si>
+    <t>phuongxa</t>
+  </si>
+  <si>
+    <t>Lan</t>
+  </si>
+  <si>
+    <t>093336472</t>
+  </si>
+  <si>
+    <t>Số 32 lê đức</t>
+  </si>
+  <si>
+    <t>Đắk Lắk</t>
+  </si>
+  <si>
+    <t>Huyện Lắk</t>
+  </si>
+  <si>
+    <t>Xã Đắk Nuê</t>
+  </si>
+  <si>
+    <t>Số điện thoại không hợp lệ</t>
+  </si>
+  <si>
+    <t>0933364722</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập số điện thoại</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập địa chỉ</t>
+  </si>
+  <si>
+    <t>Bạn chưa chọn phường xã</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập họ tên</t>
+  </si>
+  <si>
+    <t>0933364723</t>
+  </si>
+  <si>
+    <t>Cảm ơn bạn đã đặt hàng</t>
   </si>
 </sst>
 </file>
@@ -638,7 +696,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -734,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -872,7 +930,7 @@
         <v>38</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -889,7 +947,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
@@ -925,4 +983,178 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="28.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Teelab.xlsx
+++ b/Teelab.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Timkiem" sheetId="1" r:id="rId1"/>
-    <sheet name="Dangnhap" sheetId="2" r:id="rId2"/>
-    <sheet name="Dangky" sheetId="3" r:id="rId3"/>
+    <sheet name="Search" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Signup" sheetId="3" r:id="rId3"/>
     <sheet name="Dathang" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
-  <si>
-    <t>tukhoa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
   <si>
     <t>expected</t>
   </si>
@@ -60,9 +57,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>matkhau</t>
-  </si>
-  <si>
     <t>Thom24924</t>
   </si>
   <si>
@@ -120,12 +114,6 @@
     <t>Thông tin đăng nhập không chính xác.</t>
   </si>
   <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>ten</t>
-  </si>
-  <si>
     <t>sdt</t>
   </si>
   <si>
@@ -235,6 +223,30 @@
   </si>
   <si>
     <t>Cảm ơn bạn đã đặt hàng</t>
+  </si>
+  <si>
+    <t>Số điện thoại đã tồn tại.</t>
+  </si>
+  <si>
+    <t>dép</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>pthom234@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -570,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,39 +596,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -624,18 +636,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +668,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -660,117 +680,117 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -792,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -808,166 +828,169 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -989,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1006,152 +1029,152 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
         <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="F4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
       <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
         <v>62</v>
-      </c>
-      <c r="G5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Teelab.xlsx
+++ b/Teelab.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Signup" sheetId="3" r:id="rId3"/>
-    <sheet name="Dathang" sheetId="4" r:id="rId4"/>
+    <sheet name="EditQuantity" sheetId="5" r:id="rId3"/>
+    <sheet name="Signup" sheetId="3" r:id="rId4"/>
+    <sheet name="Dathang" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>expected</t>
   </si>
@@ -247,6 +248,21 @@
   </si>
   <si>
     <t>pthom234@gmail.com</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>decrease</t>
+  </si>
+  <si>
+    <t>input_quantity</t>
+  </si>
+  <si>
+    <t>action_</t>
+  </si>
+  <si>
+    <t>value_</t>
   </si>
 </sst>
 </file>
@@ -291,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -300,6 +316,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -585,7 +604,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,9 +829,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1008,12 +1102,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Teelab.xlsx
+++ b/Teelab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
   <si>
     <t>expected</t>
   </si>
@@ -34,12 +34,6 @@
     <t>Có 3 kết quả tìm kiếm phù hợp</t>
   </si>
   <si>
-    <t>dep</t>
-  </si>
-  <si>
-    <t>Có 1 kết quả tìm kiếm phù hợp</t>
-  </si>
-  <si>
     <t>!$#</t>
   </si>
   <si>
@@ -52,9 +46,6 @@
     <t>Áo khoác</t>
   </si>
   <si>
-    <t>Có 21 kết quả tìm kiếm phù hợp</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -76,12 +67,6 @@
     <t>phamhongthom249@gmail.</t>
   </si>
   <si>
-    <t>Có 2 kết quả tìm kiếm phù hợp</t>
-  </si>
-  <si>
-    <t>Có 11 kết quả tìm kiếm phù hợp</t>
-  </si>
-  <si>
     <t>Nhập từ khóa để tìm kiếm</t>
   </si>
   <si>
@@ -229,9 +214,6 @@
     <t>Số điện thoại đã tồn tại.</t>
   </si>
   <si>
-    <t>dép</t>
-  </si>
-  <si>
     <t>keyword</t>
   </si>
   <si>
@@ -259,10 +241,25 @@
     <t>input_quantity</t>
   </si>
   <si>
-    <t>action_</t>
-  </si>
-  <si>
-    <t>value_</t>
+    <t>action</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Có 4 kết quả tìm kiếm phù hợp</t>
+  </si>
+  <si>
+    <t>mũ</t>
+  </si>
+  <si>
+    <t>tui</t>
+  </si>
+  <si>
+    <t>Có 20 kết quả tìm kiếm phù hợp</t>
+  </si>
+  <si>
+    <t>Có 10 kết quả tìm kiếm phù hợp</t>
   </si>
 </sst>
 </file>
@@ -603,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,7 +612,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -626,55 +623,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -699,10 +696,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -710,106 +707,106 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -831,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -843,15 +840,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -859,7 +856,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
@@ -867,7 +864,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -875,7 +872,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
@@ -883,7 +880,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
@@ -891,7 +888,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
@@ -907,7 +904,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -922,19 +919,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -944,147 +941,147 @@
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1123,22 +1120,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1146,129 +1143,129 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="G4" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
